--- a/Assets/StreamingAssets/2_Garden_Training_Canteen.xlsx
+++ b/Assets/StreamingAssets/2_Garden_Training_Canteen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662A5884-786A-9E4A-8167-8CC0B43EADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F79EA-BA38-CF44-8D70-380343DEE97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,34 +178,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It’s fine, it’s fine. I’m Lingling, the maid in charge of the canteen.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Though her clothes were coarse and plainly colored—)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Her graceful demeanor and flawless skin didn’t match the image of a servant at all.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You must be here to celebrate the master’s birthday. Sorry I don’t know your name.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ling-Shock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No need to apologize. I am Di Renjie, a traveler from Luoyang. We arrived at the manor just this afternoon.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am Yao Chong, Master Di’s page.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am but a traveler admiring the scenery of the Gong River. Please, don’t be alarmed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ling-Pout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we turned to leave, I glanced back at Lingling.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(What a girl full of mysteries…)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, it’s getting late—shall we head back and rest?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Pity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +283,42 @@
   </si>
   <si>
     <t>StoryScript3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to apologize. I am Judge Dee, a traveler from Luoyang. We arrived at the manor just this afternoon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You must be here to celebrate the Lord’s birthday. Sorry I don’t know your name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Yao, his student.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Even though she hurriedly hid her hands behind her back, I still caught a glimpse of the jeweled bracelet she was wearing.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It looked quite valuable — not something that matched the image of a servant.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am but a traveler admiring the scenery of the JiuJiang River. Please, don’t be alarmed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, it’s getting late——shall we head back and rest?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we turned to leave, I glanced back at Ling.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s fine. I’m Ling, the chef of the canteen.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,16 +793,16 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -809,12 +813,12 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -903,9 +907,7 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
@@ -925,31 +927,22 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="34">
+    <row r="12" spans="1:16" ht="17">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -960,16 +953,13 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="34">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -977,20 +967,13 @@
       <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="34">
+    <row r="14" spans="1:16" ht="51">
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -998,16 +981,13 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="34">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="51">
       <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1015,45 +995,45 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2">
-        <v>500</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="34">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2">
+        <v>500</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="17">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1067,13 +1047,13 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1081,32 +1061,41 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="34">
+    <row r="19" spans="1:12" ht="17">
       <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="34">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="34">
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1117,7 +1106,7 @@
     </row>
     <row r="21" spans="1:12" ht="34">
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1128,7 +1117,7 @@
     </row>
     <row r="22" spans="1:12" ht="34">
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1138,72 +1127,60 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="34">
-      <c r="A23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="34">
+      <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17">
-      <c r="A24" t="s">
+      <c r="L24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="34">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1220,13 +1197,13 @@
     </row>
     <row r="26" spans="1:12" ht="34">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1234,20 +1211,22 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="34">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1255,16 +1234,20 @@
       <c r="E27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="17">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
+      <c r="G27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="34">
       <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1275,105 +1258,122 @@
     </row>
     <row r="29" spans="1:12" ht="17">
       <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="34">
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="34">
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="17">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="34">
       <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="2">
-        <v>500</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="K34" s="2">
+        <v>500</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="17">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" ht="17">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
